--- a/datapresentacion.xlsx
+++ b/datapresentacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18C3BA7-A50A-4D26-9D46-9D6D574D286C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A4B84-54E8-4327-8CB5-D185F67C3D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{569D54C4-A231-46A5-892C-E519F0CB003A}"/>
   </bookViews>
@@ -66,135 +66,90 @@
     <t>mcherre@lansier.com</t>
   </si>
   <si>
-    <t>Maria del Carmen</t>
-  </si>
-  <si>
     <t>LIMA ESTE AZUL</t>
   </si>
   <si>
     <t>gizasiga@lansier.com</t>
   </si>
   <si>
-    <t>Gilberto</t>
-  </si>
-  <si>
     <t>LIMA NORTE AZUL</t>
   </si>
   <si>
     <t>iseminario@lansier.com</t>
   </si>
   <si>
-    <t>Isabel</t>
-  </si>
-  <si>
     <t>LIMA OESTE AZUL</t>
   </si>
   <si>
     <t>gcuriel@lansier.com</t>
   </si>
   <si>
-    <t>Guillermo</t>
-  </si>
-  <si>
     <t>LIMA SUR AZUL</t>
   </si>
   <si>
     <t>rurbina@lansier.com</t>
   </si>
   <si>
-    <t>Rossana</t>
-  </si>
-  <si>
     <t>LIMA CALLAO ROJO</t>
   </si>
   <si>
     <t>emoreno@lansier.com</t>
   </si>
   <si>
-    <t>Erika</t>
-  </si>
-  <si>
     <t>LIMA ESTE ROJO</t>
   </si>
   <si>
     <t>goliveros@lansier.com</t>
   </si>
   <si>
-    <t>Miluska</t>
-  </si>
-  <si>
     <t>LIMA NORTE ROJO</t>
   </si>
   <si>
     <t>mzapata@lansier.com</t>
   </si>
   <si>
-    <t>Max</t>
-  </si>
-  <si>
     <t>LIMA OESTE ROJO</t>
   </si>
   <si>
     <t>malarcon@lansier.com</t>
   </si>
   <si>
-    <t>Maritza</t>
-  </si>
-  <si>
     <t>LIMA SUR ROJO</t>
   </si>
   <si>
     <t>eferrari@lansier.com</t>
   </si>
   <si>
-    <t>Eliud</t>
-  </si>
-  <si>
     <t>NORTE GRANDE A</t>
   </si>
   <si>
     <t>gmasias@lansier.com</t>
   </si>
   <si>
-    <t>Gustavo</t>
-  </si>
-  <si>
     <t>NORTE GRANDE B</t>
   </si>
   <si>
     <t>yludena@lansier.com</t>
   </si>
   <si>
-    <t>Yuri</t>
-  </si>
-  <si>
     <t>NORTE MEDIO</t>
   </si>
   <si>
     <t>ccuadra@lansier.com</t>
   </si>
   <si>
-    <t>Carlos</t>
-  </si>
-  <si>
     <t>SUR GRANDE</t>
   </si>
   <si>
     <t>rjimenez@lansier.com</t>
   </si>
   <si>
-    <t>Roberto</t>
-  </si>
-  <si>
     <t>SUR ORIENTE</t>
   </si>
   <si>
     <t>clazarte@lansier.com</t>
   </si>
   <si>
-    <t>Patricia</t>
-  </si>
-  <si>
     <t>VENDEDORES</t>
   </si>
   <si>
@@ -204,34 +159,79 @@
     <t>jayala@lansier.com</t>
   </si>
   <si>
-    <t>James</t>
-  </si>
-  <si>
     <t>LIMA CALLAO</t>
   </si>
   <si>
     <t>rbaca@lansier.com</t>
   </si>
   <si>
-    <t>Alina</t>
-  </si>
-  <si>
     <t>LIMA SUR</t>
   </si>
   <si>
     <t>siparraguirre@lansier.com</t>
   </si>
   <si>
-    <t>Sahalomee</t>
-  </si>
-  <si>
     <t>LIMA ESTE</t>
   </si>
   <si>
     <t>emolero@lansier.com</t>
   </si>
   <si>
-    <t>Elizabeth</t>
+    <t>Maria del Carmen Cherre</t>
+  </si>
+  <si>
+    <t>Gilberto Izasiga</t>
+  </si>
+  <si>
+    <t>Isabel Seminario</t>
+  </si>
+  <si>
+    <t>Guillermo Curiel</t>
+  </si>
+  <si>
+    <t>Rossana Urbina</t>
+  </si>
+  <si>
+    <t>Erika Moreno</t>
+  </si>
+  <si>
+    <t>Miluska Oliveros</t>
+  </si>
+  <si>
+    <t>Max Zapata</t>
+  </si>
+  <si>
+    <t>Maritza Alarcon</t>
+  </si>
+  <si>
+    <t>Eliud Ferrari</t>
+  </si>
+  <si>
+    <t>Gustavo Masias</t>
+  </si>
+  <si>
+    <t>Yuri Ludeña</t>
+  </si>
+  <si>
+    <t>Carlos Cuadra</t>
+  </si>
+  <si>
+    <t>Roberto Ludeña</t>
+  </si>
+  <si>
+    <t>Patricia Lazarte</t>
+  </si>
+  <si>
+    <t>James Ayala</t>
+  </si>
+  <si>
+    <t>Alina Baca</t>
+  </si>
+  <si>
+    <t>Sahalomee Iparraguirre</t>
+  </si>
+  <si>
+    <t>Elizabeth Molero</t>
   </si>
 </sst>
 </file>
@@ -279,7 +279,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -287,17 +287,109 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,7 +707,7 @@
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,25 +759,25 @@
         <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3">
-        <v>0.60599999999999998</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="F2" s="3">
-        <v>0.93300000000000005</v>
+        <v>1.0509999999999999</v>
       </c>
       <c r="G2" s="3">
-        <v>0.89400000000000002</v>
+        <v>0</v>
       </c>
       <c r="H2" s="3">
-        <v>0.7</v>
+        <v>0.74399999999999999</v>
       </c>
       <c r="I2" s="3">
-        <v>0.54100000000000004</v>
+        <v>0.94099999999999995</v>
       </c>
       <c r="J2" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -693,31 +785,31 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="E3" s="3">
-        <v>0.27500000000000002</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="F3" s="3">
-        <v>0.55200000000000005</v>
+        <v>0.81799999999999995</v>
       </c>
       <c r="G3" s="3">
-        <v>0.379</v>
+        <v>0</v>
       </c>
       <c r="H3" s="3">
-        <v>0.55700000000000005</v>
+        <v>0.60099999999999998</v>
       </c>
       <c r="I3" s="3">
-        <v>0.192</v>
+        <v>1.1910000000000001</v>
       </c>
       <c r="J3" s="3">
-        <v>0.187</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -725,31 +817,31 @@
         <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="E4" s="3">
-        <v>0.28899999999999998</v>
+        <v>0.436</v>
       </c>
       <c r="F4" s="3">
-        <v>0.35699999999999998</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G4" s="3">
-        <v>0.24299999999999999</v>
+        <v>0</v>
       </c>
       <c r="H4" s="3">
-        <v>0.28199999999999997</v>
+        <v>0.48</v>
       </c>
       <c r="I4" s="3">
-        <v>0.753</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="J4" s="3">
-        <v>0.216</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -757,31 +849,31 @@
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E5" s="3">
-        <v>0.53900000000000003</v>
+        <v>1.3109999999999999</v>
       </c>
       <c r="F5" s="3">
-        <v>0.48399999999999999</v>
+        <v>1.2070000000000001</v>
       </c>
       <c r="G5" s="3">
-        <v>0.57899999999999996</v>
+        <v>0</v>
       </c>
       <c r="H5" s="3">
-        <v>0.58599999999999997</v>
+        <v>1.2729999999999999</v>
       </c>
       <c r="I5" s="3">
-        <v>0.64100000000000001</v>
+        <v>2.234</v>
       </c>
       <c r="J5" s="3">
-        <v>0.313</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -789,31 +881,31 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E6" s="3">
-        <v>0.57899999999999996</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="3">
-        <v>0.82399999999999995</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="G6" s="3">
-        <v>1.123</v>
+        <v>0</v>
       </c>
       <c r="H6" s="3">
-        <v>0.85299999999999998</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="I6" s="3">
-        <v>0.76700000000000002</v>
+        <v>1.304</v>
       </c>
       <c r="J6" s="3">
-        <v>0.27400000000000002</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -821,31 +913,31 @@
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="E7" s="3">
-        <v>0.72199999999999998</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F7" s="3">
-        <v>1.3520000000000001</v>
+        <v>1.994</v>
       </c>
       <c r="G7" s="3">
-        <v>0.14799999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="H7" s="3">
         <v>0.23599999999999999</v>
       </c>
       <c r="I7" s="3">
-        <v>0.70799999999999996</v>
+        <v>1.0860000000000001</v>
       </c>
       <c r="J7" s="3">
-        <v>0.40799999999999997</v>
+        <v>0.46700000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -853,31 +945,31 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="E8" s="3">
-        <v>0.24099999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="F8" s="3">
-        <v>0.20300000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G8" s="3">
-        <v>0.27600000000000002</v>
+        <v>0.499</v>
       </c>
       <c r="H8" s="3">
-        <v>0.56000000000000005</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="I8" s="3">
-        <v>0.26600000000000001</v>
+        <v>0.80400000000000005</v>
       </c>
       <c r="J8" s="3">
-        <v>0.187</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -885,31 +977,31 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="E9" s="3">
-        <v>0.27</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="F9" s="3">
-        <v>0.57599999999999996</v>
+        <v>1.214</v>
       </c>
       <c r="G9" s="3">
-        <v>4.1000000000000002E-2</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="H9" s="3">
-        <v>9.5000000000000001E-2</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="I9" s="3">
-        <v>0.44800000000000001</v>
+        <v>3.0110000000000001</v>
       </c>
       <c r="J9" s="3">
-        <v>0.216</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
@@ -917,31 +1009,31 @@
         <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="E10" s="3">
-        <v>0.46500000000000002</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="F10" s="3">
-        <v>0.45</v>
+        <v>0.86</v>
       </c>
       <c r="G10" s="3">
-        <v>0.41399999999999998</v>
+        <v>0.64300000000000002</v>
       </c>
       <c r="H10" s="3">
-        <v>0.497</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="I10" s="3">
-        <v>0.53900000000000003</v>
+        <v>1.798</v>
       </c>
       <c r="J10" s="3">
-        <v>0.313</v>
+        <v>0.61799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -949,31 +1041,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="E11" s="3">
-        <v>0.46700000000000003</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="F11" s="3">
-        <v>0.61</v>
+        <v>1.0660000000000001</v>
       </c>
       <c r="G11" s="3">
-        <v>1.3149999999999999</v>
+        <v>1.569</v>
       </c>
       <c r="H11" s="3">
-        <v>0.51800000000000002</v>
+        <v>0.55100000000000005</v>
       </c>
       <c r="I11" s="3">
-        <v>0.621</v>
+        <v>0.85899999999999999</v>
       </c>
       <c r="J11" s="3">
-        <v>0.27400000000000002</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -981,31 +1073,31 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
-        <v>0.10100000000000001</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="F12" s="3">
-        <v>4.4999999999999998E-2</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="G12" s="3">
-        <v>0.29799999999999999</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="H12" s="3">
-        <v>0.34799999999999998</v>
+        <v>1.181</v>
       </c>
       <c r="I12" s="3">
-        <v>0.08</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="J12" s="3">
-        <v>7.8E-2</v>
+        <v>0.33300000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -1013,31 +1105,31 @@
         <v>10</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E13" s="3">
-        <v>6.9000000000000006E-2</v>
+        <v>1.2150000000000001</v>
       </c>
       <c r="F13" s="3">
-        <v>5.7000000000000002E-2</v>
+        <v>0.99</v>
       </c>
       <c r="G13" s="3">
-        <v>0.252</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="H13" s="3">
-        <v>0.17399999999999999</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="I13" s="3">
-        <v>0.17299999999999999</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="J13" s="3">
-        <v>2.2000000000000002</v>
+        <v>1.3540000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1045,31 +1137,31 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E14" s="3">
-        <v>9.4E-2</v>
+        <v>0.58699999999999997</v>
       </c>
       <c r="F14" s="3">
-        <v>0.38</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="H14" s="3">
-        <v>0.20499999999999999</v>
+        <v>0.42599999999999999</v>
       </c>
       <c r="I14" s="3">
-        <v>0.26300000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J14" s="3">
-        <v>1.0999999999999999E-2</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -1077,31 +1169,31 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3">
-        <v>0.54500000000000004</v>
+        <v>0.76700000000000002</v>
       </c>
       <c r="F15" s="3">
-        <v>0.79500000000000004</v>
+        <v>1.087</v>
       </c>
       <c r="G15" s="3">
-        <v>0.39500000000000002</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="H15" s="3">
-        <v>0.47899999999999998</v>
+        <v>0.59699999999999998</v>
       </c>
       <c r="I15" s="3">
-        <v>0.63</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="J15" s="3">
-        <v>0.44400000000000001</v>
+        <v>0.60499999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1109,159 +1201,159 @@
         <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E16" s="3">
-        <v>0.33</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="F16" s="3">
-        <v>0.68799999999999994</v>
+        <v>1.272</v>
       </c>
       <c r="G16" s="3">
-        <v>0.27</v>
+        <v>0.57399999999999995</v>
       </c>
       <c r="H16" s="3">
-        <v>0.28799999999999998</v>
+        <v>0.432</v>
       </c>
       <c r="I16" s="3">
-        <v>0.47499999999999998</v>
+        <v>0.81</v>
       </c>
       <c r="J16" s="3">
-        <v>0.186</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.378</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.432</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.221</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.48399999999999999</v>
+      <c r="A17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="G17" s="6">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1.641</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.624</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.437</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="G18" s="3">
-        <v>6.2E-2</v>
-      </c>
-      <c r="H18" s="3">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0.27500000000000002</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0.27200000000000002</v>
+      <c r="A18" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.52400000000000002</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="I18" s="10">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="J18" s="11">
+        <v>0.32800000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.47799999999999998</v>
-      </c>
-      <c r="G19" s="3">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H19" s="3">
-        <v>4.8000000000000001E-2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0.315</v>
+      <c r="A19" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="I19" s="10">
+        <v>1.3280000000000001</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0.39800000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E20" s="3">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.123</v>
-      </c>
-      <c r="G20" s="3">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="H20" s="3">
-        <v>4.7E-2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="J20" s="3">
-        <v>5.3999999999999999E-2</v>
+      <c r="E20" s="14">
+        <v>0.436</v>
+      </c>
+      <c r="F20" s="14">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="G20" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H20" s="14">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="I20" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="J20" s="15">
+        <v>0.24299999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/datapresentacion.xlsx
+++ b/datapresentacion.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>63.4</v>
+        <v>74.8</v>
       </c>
       <c r="F2">
-        <v>67</v>
+        <v>89.3</v>
       </c>
       <c r="H2">
-        <v>88.5</v>
+        <v>45.8</v>
       </c>
       <c r="I2">
-        <v>72.90000000000001</v>
+        <v>77.7</v>
       </c>
       <c r="J2">
-        <v>47.7</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>32.4</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="F3">
-        <v>46.4</v>
+        <v>127.6</v>
       </c>
       <c r="H3">
-        <v>19.9</v>
+        <v>53.9</v>
       </c>
       <c r="I3">
-        <v>21</v>
+        <v>44.6</v>
       </c>
       <c r="J3">
-        <v>34.4</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>91.7</v>
+        <v>122.5</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>76.8</v>
       </c>
       <c r="H4">
-        <v>51.3</v>
+        <v>106.1</v>
       </c>
       <c r="I4">
-        <v>21.2</v>
+        <v>88.2</v>
       </c>
       <c r="J4">
-        <v>119.7</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>66.59999999999999</v>
+        <v>89.8</v>
       </c>
       <c r="F5">
-        <v>67.59999999999999</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="H5">
-        <v>70.8</v>
+        <v>104</v>
       </c>
       <c r="I5">
-        <v>71.5</v>
+        <v>83.8</v>
       </c>
       <c r="J5">
-        <v>40.7</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>65.09999999999999</v>
+        <v>94</v>
       </c>
       <c r="F6">
-        <v>101.3</v>
+        <v>134.3</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>58.8</v>
       </c>
       <c r="I6">
-        <v>104.4</v>
+        <v>150</v>
       </c>
       <c r="J6">
-        <v>40.9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>93.7</v>
+        <v>103.7</v>
       </c>
       <c r="F7">
-        <v>168.5</v>
+        <v>168.4</v>
       </c>
       <c r="G7">
-        <v>94.2</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="H7">
-        <v>22.2</v>
+        <v>27.1</v>
       </c>
       <c r="I7">
-        <v>98.5</v>
+        <v>108.8</v>
       </c>
       <c r="J7">
-        <v>47.7</v>
+        <v>70.09999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>49.1</v>
+        <v>91</v>
       </c>
       <c r="F8">
-        <v>24.1</v>
+        <v>70.3</v>
       </c>
       <c r="G8">
-        <v>158.6</v>
+        <v>254.4</v>
       </c>
       <c r="H8">
-        <v>20</v>
+        <v>45.4</v>
       </c>
       <c r="I8">
-        <v>139.7</v>
+        <v>179.1</v>
       </c>
       <c r="J8">
-        <v>34.4</v>
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>92.8</v>
+        <v>125.1</v>
       </c>
       <c r="F9">
-        <v>38.3</v>
+        <v>118.7</v>
       </c>
       <c r="G9">
-        <v>79.40000000000001</v>
+        <v>168.7</v>
       </c>
       <c r="H9">
-        <v>7.4</v>
+        <v>40.8</v>
       </c>
       <c r="I9">
-        <v>44.6</v>
+        <v>91.8</v>
       </c>
       <c r="J9">
-        <v>119.7</v>
+        <v>140.5</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>67.59999999999999</v>
+        <v>86.8</v>
       </c>
       <c r="F10">
-        <v>58.8</v>
+        <v>86</v>
       </c>
       <c r="G10">
-        <v>11.7</v>
+        <v>20.3</v>
       </c>
       <c r="H10">
-        <v>79.3</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="I10">
-        <v>93</v>
+        <v>127.1</v>
       </c>
       <c r="J10">
-        <v>40.7</v>
+        <v>55.4</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>56.9</v>
+        <v>86</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>153.8</v>
       </c>
       <c r="G11">
-        <v>93.2</v>
+        <v>163.7</v>
       </c>
       <c r="H11">
-        <v>74.7</v>
+        <v>79</v>
       </c>
       <c r="I11">
-        <v>38.8</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="J11">
-        <v>40.9</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>12.6</v>
+        <v>45.6</v>
       </c>
       <c r="F12">
-        <v>7.4</v>
+        <v>50.7</v>
       </c>
       <c r="G12">
-        <v>15.9</v>
+        <v>57.3</v>
       </c>
       <c r="H12">
-        <v>9.199999999999999</v>
+        <v>17.7</v>
       </c>
       <c r="I12">
-        <v>15.7</v>
+        <v>58.5</v>
       </c>
       <c r="J12">
-        <v>15.8</v>
+        <v>42.1</v>
       </c>
     </row>
     <row r="13">
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>34.9</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="F13">
-        <v>36.2</v>
+        <v>74.59999999999999</v>
       </c>
       <c r="G13">
-        <v>43.6</v>
+        <v>188.6</v>
       </c>
       <c r="H13">
-        <v>25</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="I13">
-        <v>41.6</v>
+        <v>70.5</v>
       </c>
       <c r="J13">
-        <v>34.6</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>19.2</v>
+        <v>60.3</v>
       </c>
       <c r="F14">
-        <v>58.7</v>
+        <v>112.3</v>
       </c>
       <c r="G14">
-        <v>86.7</v>
+        <v>184.4</v>
       </c>
       <c r="H14">
-        <v>17.3</v>
+        <v>33.7</v>
       </c>
       <c r="I14">
-        <v>33</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="J14">
-        <v>9.6</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="15">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="E15">
-        <v>64.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F15">
-        <v>78.7</v>
+        <v>108.7</v>
       </c>
       <c r="G15">
-        <v>27.4</v>
+        <v>93</v>
       </c>
       <c r="H15">
-        <v>38.3</v>
+        <v>45.9</v>
       </c>
       <c r="I15">
-        <v>115.4</v>
+        <v>144.9</v>
       </c>
       <c r="J15">
-        <v>48.2</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>39.9</v>
+        <v>56.7</v>
       </c>
       <c r="F16">
-        <v>30.9</v>
+        <v>68.2</v>
       </c>
       <c r="G16">
-        <v>101.9</v>
+        <v>182.5</v>
       </c>
       <c r="H16">
-        <v>8.4</v>
+        <v>29</v>
       </c>
       <c r="I16">
-        <v>39.6</v>
+        <v>59.7</v>
       </c>
       <c r="J16">
-        <v>46.1</v>
+        <v>53.6</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>106.7</v>
+        <v>141.4</v>
       </c>
       <c r="F17">
-        <v>36.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="G17">
-        <v>8.199999999999999</v>
+        <v>16.9</v>
       </c>
       <c r="H17">
-        <v>31.1</v>
+        <v>35.7</v>
       </c>
       <c r="I17">
-        <v>15.9</v>
+        <v>42.3</v>
       </c>
       <c r="J17">
-        <v>299.1</v>
+        <v>349.9</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>39.4</v>
+        <v>50.5</v>
       </c>
       <c r="F18">
-        <v>38.1</v>
+        <v>52.7</v>
       </c>
       <c r="G18">
-        <v>16.7</v>
+        <v>23.1</v>
       </c>
       <c r="H18">
-        <v>50.6</v>
+        <v>79.8</v>
       </c>
       <c r="I18">
-        <v>36.9</v>
+        <v>41.6</v>
       </c>
       <c r="J18">
-        <v>46.5</v>
+        <v>55.3</v>
       </c>
     </row>
     <row r="19">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="E19">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F19">
-        <v>71.2</v>
+        <v>113.4</v>
       </c>
       <c r="G19">
-        <v>53.2</v>
+        <v>56.6</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>13.7</v>
       </c>
       <c r="I19">
-        <v>29.8</v>
+        <v>41.7</v>
       </c>
       <c r="J19">
-        <v>41.6</v>
+        <v>57.3</v>
       </c>
     </row>
     <row r="20">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="E20">
-        <v>42.5</v>
+        <v>77.3</v>
       </c>
       <c r="F20">
-        <v>22.3</v>
+        <v>71.5</v>
       </c>
       <c r="G20">
-        <v>18.3</v>
+        <v>24.6</v>
       </c>
       <c r="H20">
-        <v>8.1</v>
+        <v>12.5</v>
       </c>
       <c r="I20">
-        <v>101.5</v>
+        <v>127.4</v>
       </c>
       <c r="J20">
-        <v>29.6</v>
+        <v>79.7</v>
       </c>
     </row>
   </sheetData>

--- a/datapresentacion.xlsx
+++ b/datapresentacion.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>74.8</v>
+        <v>26.3</v>
       </c>
       <c r="F2">
-        <v>89.3</v>
+        <v>22.5</v>
       </c>
       <c r="H2">
-        <v>45.8</v>
+        <v>42.4</v>
       </c>
       <c r="I2">
-        <v>77.7</v>
+        <v>43.3</v>
       </c>
       <c r="J2">
-        <v>70.09999999999999</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>76.59999999999999</v>
+        <v>27.8</v>
       </c>
       <c r="F3">
-        <v>127.6</v>
+        <v>38.5</v>
       </c>
       <c r="H3">
-        <v>53.9</v>
+        <v>35.3</v>
       </c>
       <c r="I3">
-        <v>44.6</v>
+        <v>38.3</v>
       </c>
       <c r="J3">
-        <v>76.90000000000001</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>122.5</v>
+        <v>39.6</v>
       </c>
       <c r="F4">
-        <v>76.8</v>
+        <v>25.9</v>
       </c>
       <c r="H4">
-        <v>106.1</v>
+        <v>-0.1</v>
       </c>
       <c r="I4">
-        <v>88.2</v>
+        <v>129</v>
       </c>
       <c r="J4">
-        <v>140.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>89.8</v>
+        <v>44.9</v>
       </c>
       <c r="F5">
-        <v>88.90000000000001</v>
+        <v>41.8</v>
       </c>
       <c r="H5">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="I5">
-        <v>83.8</v>
+        <v>68.3</v>
       </c>
       <c r="J5">
-        <v>55.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>94</v>
+        <v>23.3</v>
       </c>
       <c r="F6">
-        <v>134.3</v>
+        <v>27.4</v>
       </c>
       <c r="H6">
-        <v>58.8</v>
+        <v>20.5</v>
       </c>
       <c r="I6">
-        <v>150</v>
+        <v>53.5</v>
       </c>
       <c r="J6">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>103.7</v>
+        <v>23.6</v>
       </c>
       <c r="F7">
-        <v>168.4</v>
+        <v>20.2</v>
       </c>
       <c r="G7">
-        <v>78.59999999999999</v>
+        <v>63</v>
       </c>
       <c r="H7">
-        <v>27.1</v>
+        <v>36.3</v>
       </c>
       <c r="I7">
-        <v>108.8</v>
+        <v>33.2</v>
       </c>
       <c r="J7">
-        <v>70.09999999999999</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>91</v>
+        <v>24.8</v>
       </c>
       <c r="F8">
-        <v>70.3</v>
+        <v>19.4</v>
       </c>
       <c r="G8">
-        <v>254.4</v>
+        <v>58.4</v>
       </c>
       <c r="H8">
-        <v>45.4</v>
+        <v>20.1</v>
       </c>
       <c r="I8">
-        <v>179.1</v>
+        <v>48.7</v>
       </c>
       <c r="J8">
-        <v>76.90000000000001</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>125.1</v>
+        <v>42.1</v>
       </c>
       <c r="F9">
-        <v>118.7</v>
+        <v>124.9</v>
       </c>
       <c r="G9">
-        <v>168.7</v>
+        <v>48.9</v>
       </c>
       <c r="H9">
-        <v>40.8</v>
+        <v>3.2</v>
       </c>
       <c r="I9">
-        <v>91.8</v>
+        <v>25.4</v>
       </c>
       <c r="J9">
-        <v>140.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>86.8</v>
+        <v>39.4</v>
       </c>
       <c r="F10">
-        <v>86</v>
+        <v>54.3</v>
       </c>
       <c r="G10">
-        <v>20.3</v>
+        <v>39.5</v>
       </c>
       <c r="H10">
-        <v>89.90000000000001</v>
+        <v>40.1</v>
       </c>
       <c r="I10">
-        <v>127.1</v>
+        <v>39.4</v>
       </c>
       <c r="J10">
-        <v>55.4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>86</v>
+        <v>22.8</v>
       </c>
       <c r="F11">
-        <v>153.8</v>
+        <v>14.5</v>
       </c>
       <c r="G11">
-        <v>163.7</v>
+        <v>10.5</v>
       </c>
       <c r="H11">
-        <v>79</v>
+        <v>94.8</v>
       </c>
       <c r="I11">
-        <v>70.40000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="J11">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>45.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="F12">
-        <v>50.7</v>
+        <v>7.8</v>
       </c>
       <c r="G12">
-        <v>57.3</v>
+        <v>64.8</v>
       </c>
       <c r="H12">
-        <v>17.7</v>
+        <v>5.2</v>
       </c>
       <c r="I12">
-        <v>58.5</v>
+        <v>6.9</v>
       </c>
       <c r="J12">
-        <v>42.1</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="13">
@@ -856,22 +856,22 @@
         </is>
       </c>
       <c r="E13">
-        <v>66.09999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="F13">
-        <v>74.59999999999999</v>
+        <v>20.7</v>
       </c>
       <c r="G13">
-        <v>188.6</v>
+        <v>85.2</v>
       </c>
       <c r="H13">
-        <v>65.40000000000001</v>
+        <v>22.5</v>
       </c>
       <c r="I13">
-        <v>70.5</v>
+        <v>28.5</v>
       </c>
       <c r="J13">
-        <v>57.5</v>
+        <v>40.3</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>60.3</v>
+        <v>23</v>
       </c>
       <c r="F14">
-        <v>112.3</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G14">
-        <v>184.4</v>
+        <v>45.9</v>
       </c>
       <c r="H14">
-        <v>33.7</v>
+        <v>12.5</v>
       </c>
       <c r="I14">
-        <v>75.40000000000001</v>
+        <v>22.1</v>
       </c>
       <c r="J14">
-        <v>50.6</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="15">
@@ -932,26 +932,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Roberto Ludeña</t>
+          <t>Roberto Jimenez</t>
         </is>
       </c>
       <c r="E15">
-        <v>84.09999999999999</v>
+        <v>39.1</v>
       </c>
       <c r="F15">
-        <v>108.7</v>
+        <v>50.5</v>
       </c>
       <c r="G15">
-        <v>93</v>
+        <v>44.1</v>
       </c>
       <c r="H15">
-        <v>45.9</v>
+        <v>27.5</v>
       </c>
       <c r="I15">
-        <v>144.9</v>
+        <v>39.3</v>
       </c>
       <c r="J15">
-        <v>61.4</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>56.7</v>
+        <v>20.9</v>
       </c>
       <c r="F16">
-        <v>68.2</v>
+        <v>21.7</v>
       </c>
       <c r="G16">
-        <v>182.5</v>
+        <v>16.8</v>
       </c>
       <c r="H16">
-        <v>29</v>
+        <v>6.9</v>
       </c>
       <c r="I16">
-        <v>59.7</v>
+        <v>38.4</v>
       </c>
       <c r="J16">
-        <v>53.6</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>141.4</v>
+        <v>59.3</v>
       </c>
       <c r="F17">
         <v>82.40000000000001</v>
       </c>
       <c r="G17">
-        <v>16.9</v>
+        <v>2.8</v>
       </c>
       <c r="H17">
-        <v>35.7</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>42.3</v>
+        <v>53.5</v>
       </c>
       <c r="J17">
-        <v>349.9</v>
+        <v>82.5</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>50.5</v>
+        <v>7.7</v>
       </c>
       <c r="F18">
-        <v>52.7</v>
+        <v>4.6</v>
       </c>
       <c r="G18">
-        <v>23.1</v>
+        <v>3.5</v>
       </c>
       <c r="H18">
-        <v>79.8</v>
+        <v>32.8</v>
       </c>
       <c r="I18">
-        <v>41.6</v>
+        <v>-0.6</v>
       </c>
       <c r="J18">
-        <v>55.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="19">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="E19">
-        <v>63</v>
+        <v>9.6</v>
       </c>
       <c r="F19">
-        <v>113.4</v>
+        <v>14.1</v>
       </c>
       <c r="G19">
-        <v>56.6</v>
+        <v>2.8</v>
       </c>
       <c r="H19">
-        <v>13.7</v>
+        <v>6.8</v>
       </c>
       <c r="I19">
-        <v>41.7</v>
+        <v>10</v>
       </c>
       <c r="J19">
-        <v>57.3</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="20">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="E20">
-        <v>77.3</v>
+        <v>24</v>
       </c>
       <c r="F20">
-        <v>71.5</v>
+        <v>22.1</v>
       </c>
       <c r="G20">
-        <v>24.6</v>
+        <v>2.1</v>
       </c>
       <c r="H20">
-        <v>12.5</v>
+        <v>30.2</v>
       </c>
       <c r="I20">
-        <v>127.4</v>
+        <v>30.6</v>
       </c>
       <c r="J20">
-        <v>79.7</v>
+        <v>25.3</v>
       </c>
     </row>
   </sheetData>

--- a/datapresentacion.xlsx
+++ b/datapresentacion.xlsx
@@ -431,19 +431,19 @@
         </is>
       </c>
       <c r="E2">
-        <v>26.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F2">
-        <v>22.5</v>
+        <v>62.6</v>
       </c>
       <c r="H2">
-        <v>42.4</v>
+        <v>51.9</v>
       </c>
       <c r="I2">
-        <v>43.3</v>
+        <v>106.2</v>
       </c>
       <c r="J2">
-        <v>12.2</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="3">
@@ -468,19 +468,19 @@
         </is>
       </c>
       <c r="E3">
-        <v>27.8</v>
+        <v>47</v>
       </c>
       <c r="F3">
-        <v>38.5</v>
+        <v>62.1</v>
       </c>
       <c r="H3">
-        <v>35.3</v>
+        <v>59.4</v>
       </c>
       <c r="I3">
-        <v>38.3</v>
+        <v>57.4</v>
       </c>
       <c r="J3">
-        <v>19.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         </is>
       </c>
       <c r="E4">
-        <v>39.6</v>
+        <v>72.7</v>
       </c>
       <c r="F4">
-        <v>25.9</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="H4">
-        <v>-0.1</v>
+        <v>88.8</v>
       </c>
       <c r="I4">
-        <v>129</v>
+        <v>266</v>
       </c>
       <c r="J4">
-        <v>35.6</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="5">
@@ -542,19 +542,19 @@
         </is>
       </c>
       <c r="E5">
-        <v>44.9</v>
+        <v>94.5</v>
       </c>
       <c r="F5">
-        <v>41.8</v>
+        <v>104.3</v>
       </c>
       <c r="H5">
-        <v>48</v>
+        <v>79.7</v>
       </c>
       <c r="I5">
-        <v>68.3</v>
+        <v>124.4</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="6">
@@ -579,19 +579,19 @@
         </is>
       </c>
       <c r="E6">
-        <v>23.3</v>
+        <v>51.5</v>
       </c>
       <c r="F6">
-        <v>27.4</v>
+        <v>62.2</v>
       </c>
       <c r="H6">
-        <v>20.5</v>
+        <v>60.1</v>
       </c>
       <c r="I6">
-        <v>53.5</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="J6">
-        <v>14</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="7">
@@ -616,22 +616,22 @@
         </is>
       </c>
       <c r="E7">
-        <v>23.6</v>
+        <v>86.8</v>
       </c>
       <c r="F7">
-        <v>20.2</v>
+        <v>47.2</v>
       </c>
       <c r="G7">
-        <v>63</v>
+        <v>70.3</v>
       </c>
       <c r="H7">
-        <v>36.3</v>
+        <v>70.5</v>
       </c>
       <c r="I7">
-        <v>33.2</v>
+        <v>148.3</v>
       </c>
       <c r="J7">
-        <v>12.2</v>
+        <v>83.8</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="E8">
-        <v>24.8</v>
+        <v>54.8</v>
       </c>
       <c r="F8">
-        <v>19.4</v>
+        <v>38.7</v>
       </c>
       <c r="G8">
-        <v>58.4</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="H8">
-        <v>20.1</v>
+        <v>60</v>
       </c>
       <c r="I8">
-        <v>48.7</v>
+        <v>129.4</v>
       </c>
       <c r="J8">
-        <v>19.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="9">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="E9">
-        <v>42.1</v>
+        <v>119.1</v>
       </c>
       <c r="F9">
-        <v>124.9</v>
+        <v>590.5</v>
       </c>
       <c r="G9">
-        <v>48.9</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="H9">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="I9">
-        <v>25.4</v>
+        <v>153</v>
       </c>
       <c r="J9">
-        <v>35.6</v>
+        <v>49.3</v>
       </c>
     </row>
     <row r="10">
@@ -736,22 +736,22 @@
         </is>
       </c>
       <c r="E10">
-        <v>39.4</v>
+        <v>98.8</v>
       </c>
       <c r="F10">
-        <v>54.3</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="G10">
-        <v>39.5</v>
+        <v>69.09999999999999</v>
       </c>
       <c r="H10">
-        <v>40.1</v>
+        <v>109.7</v>
       </c>
       <c r="I10">
-        <v>39.4</v>
+        <v>127.3</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>49.9</v>
       </c>
     </row>
     <row r="11">
@@ -776,22 +776,22 @@
         </is>
       </c>
       <c r="E11">
-        <v>22.8</v>
+        <v>46.5</v>
       </c>
       <c r="F11">
-        <v>14.5</v>
+        <v>40.3</v>
       </c>
       <c r="G11">
-        <v>10.5</v>
+        <v>52.1</v>
       </c>
       <c r="H11">
-        <v>94.8</v>
+        <v>91.8</v>
       </c>
       <c r="I11">
-        <v>10.6</v>
+        <v>49.5</v>
       </c>
       <c r="J11">
-        <v>14</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="12">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>8.699999999999999</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="F12">
-        <v>7.8</v>
+        <v>62.4</v>
       </c>
       <c r="G12">
-        <v>64.8</v>
+        <v>161.9</v>
       </c>
       <c r="H12">
-        <v>5.2</v>
+        <v>47</v>
       </c>
       <c r="I12">
-        <v>6.9</v>
+        <v>77.2</v>
       </c>
       <c r="J12">
-        <v>7.2</v>
+        <v>105.5</v>
       </c>
     </row>
     <row r="13">
@@ -852,26 +852,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yuri Ludeña</t>
+          <t>Yuri Lude?a</t>
         </is>
       </c>
       <c r="E13">
-        <v>34.9</v>
+        <v>75.2</v>
       </c>
       <c r="F13">
-        <v>20.7</v>
+        <v>69.8</v>
       </c>
       <c r="G13">
-        <v>85.2</v>
+        <v>126.3</v>
       </c>
       <c r="H13">
-        <v>22.5</v>
+        <v>56.1</v>
       </c>
       <c r="I13">
-        <v>28.5</v>
+        <v>54.1</v>
       </c>
       <c r="J13">
-        <v>40.3</v>
+        <v>82.59999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -896,22 +896,22 @@
         </is>
       </c>
       <c r="E14">
-        <v>23</v>
+        <v>166.4</v>
       </c>
       <c r="F14">
-        <v>64.90000000000001</v>
+        <v>123.6</v>
       </c>
       <c r="G14">
-        <v>45.9</v>
+        <v>66</v>
       </c>
       <c r="H14">
-        <v>12.5</v>
+        <v>37.9</v>
       </c>
       <c r="I14">
-        <v>22.1</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="J14">
-        <v>17.1</v>
+        <v>205.3</v>
       </c>
     </row>
     <row r="15">
@@ -936,22 +936,22 @@
         </is>
       </c>
       <c r="E15">
-        <v>39.1</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="F15">
-        <v>50.5</v>
+        <v>106.1</v>
       </c>
       <c r="G15">
-        <v>44.1</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="H15">
-        <v>27.5</v>
+        <v>49.2</v>
       </c>
       <c r="I15">
-        <v>39.3</v>
+        <v>69.5</v>
       </c>
       <c r="J15">
-        <v>36.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="16">
@@ -976,22 +976,22 @@
         </is>
       </c>
       <c r="E16">
-        <v>20.9</v>
+        <v>57.5</v>
       </c>
       <c r="F16">
-        <v>21.7</v>
+        <v>72.5</v>
       </c>
       <c r="G16">
-        <v>16.8</v>
+        <v>166.3</v>
       </c>
       <c r="H16">
-        <v>6.9</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>38.4</v>
+        <v>94</v>
       </c>
       <c r="J16">
-        <v>18.3</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="17">
@@ -1016,22 +1016,22 @@
         </is>
       </c>
       <c r="E17">
-        <v>59.3</v>
+        <v>152.1</v>
       </c>
       <c r="F17">
-        <v>82.40000000000001</v>
+        <v>324.1</v>
       </c>
       <c r="G17">
-        <v>2.8</v>
+        <v>4.4</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>54.4</v>
       </c>
       <c r="I17">
-        <v>53.5</v>
+        <v>128.5</v>
       </c>
       <c r="J17">
-        <v>82.5</v>
+        <v>110.2</v>
       </c>
     </row>
     <row r="18">
@@ -1056,22 +1056,22 @@
         </is>
       </c>
       <c r="E18">
-        <v>7.7</v>
+        <v>45.4</v>
       </c>
       <c r="F18">
-        <v>4.6</v>
+        <v>39</v>
       </c>
       <c r="G18">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>32.8</v>
+        <v>48</v>
       </c>
       <c r="I18">
-        <v>-0.6</v>
+        <v>55.2</v>
       </c>
       <c r="J18">
-        <v>10.2</v>
+        <v>55.2</v>
       </c>
     </row>
     <row r="19">
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="E19">
-        <v>9.6</v>
+        <v>35.2</v>
       </c>
       <c r="F19">
-        <v>14.1</v>
+        <v>48.7</v>
       </c>
       <c r="G19">
-        <v>2.8</v>
+        <v>17.7</v>
       </c>
       <c r="H19">
-        <v>6.8</v>
+        <v>25.9</v>
       </c>
       <c r="I19">
-        <v>10</v>
+        <v>26.9</v>
       </c>
       <c r="J19">
-        <v>8.6</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="20">
@@ -1136,22 +1136,22 @@
         </is>
       </c>
       <c r="E20">
-        <v>24</v>
+        <v>44.8</v>
       </c>
       <c r="F20">
-        <v>22.1</v>
+        <v>41</v>
       </c>
       <c r="G20">
         <v>2.1</v>
       </c>
       <c r="H20">
-        <v>30.2</v>
+        <v>31.4</v>
       </c>
       <c r="I20">
-        <v>30.6</v>
+        <v>88</v>
       </c>
       <c r="J20">
-        <v>25.3</v>
+        <v>30.7</v>
       </c>
     </row>
   </sheetData>
